--- a/data/mcc.xlsx
+++ b/data/mcc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\KAGGLE\raiffeisen_data_cup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kaggle\raif\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20633" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -1179,7 +1179,7 @@
     <t>Description_2</t>
   </si>
   <si>
-    <t>Description_1_code</t>
+    <t>mcc_group</t>
   </si>
 </sst>
 </file>
@@ -1511,14 +1511,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="10" max="10" width="46.09765625" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="10" max="10" width="46.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
